--- a/SPQM/Team Assignment/Final/Tìm hiểu/SPQM-K16T-Course_Implementation_Plan_V1.0_4Sep13_.xlsx
+++ b/SPQM/Team Assignment/Final/Tìm hiểu/SPQM-K16T-Course_Implementation_Plan_V1.0_4Sep13_.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK7 (năm 4 - 2013-2014)\SPQM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Team 5\SPQM\Team Assignment\Final\Tìm hiểu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="14880" windowHeight="7920" tabRatio="781" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="781" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Individual Homework List" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
     <sheet name="Team Assignment List" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="Phân công 1" sheetId="7" r:id="rId7"/>
+    <sheet name="Phân công 2" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Course Implementation Plan'!$A$2:$J$41</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="276">
   <si>
     <t>Week#</t>
   </si>
@@ -1000,6 +1001,39 @@
   </si>
   <si>
     <t>TA</t>
+  </si>
+  <si>
+    <t>PIID</t>
+  </si>
+  <si>
+    <t>CM guide line</t>
+  </si>
+  <si>
+    <t>CM process</t>
+  </si>
+  <si>
+    <t>hướng dẫn để thực hiện CM plan</t>
+  </si>
+  <si>
+    <t>những thứ cần quản lý (giống file Thứ đã đưa lên SVN)</t>
+  </si>
+  <si>
+    <t>CM plan</t>
+  </si>
+  <si>
+    <t>Áp dụng trực tiếp cho dự án của mình</t>
+  </si>
+  <si>
+    <t>Châu + Thái Anh</t>
+  </si>
+  <si>
+    <t>Thứ + Đạo</t>
+  </si>
+  <si>
+    <t>Khang + Phú</t>
+  </si>
+  <si>
+    <t>Cả nhóm</t>
   </si>
 </sst>
 </file>
@@ -1724,105 +1758,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -1835,6 +1770,105 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2208,19 +2242,19 @@
   <sheetData>
     <row r="1" spans="2:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
     </row>
     <row r="2" spans="2:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
     </row>
     <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
@@ -2239,60 +2273,60 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
     </row>
     <row r="6" spans="2:6" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
     </row>
     <row r="7" spans="2:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="123">
         <v>41521</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
     </row>
     <row r="8" spans="2:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
     </row>
     <row r="9" spans="2:6" s="12" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
     </row>
     <row r="10" spans="2:6" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
     </row>
     <row r="11" spans="2:6" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
@@ -2434,64 +2468,64 @@
       <c r="A6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
     </row>
     <row r="7" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
     </row>
     <row r="8" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
     </row>
     <row r="9" spans="1:15" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
@@ -2877,13 +2911,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="132">
+      <c r="A3" s="130">
         <v>1</v>
       </c>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="65" t="s">
@@ -2898,18 +2932,18 @@
       <c r="G3" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="125" t="s">
+      <c r="H3" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="I3" s="129"/>
-      <c r="J3" s="128" t="s">
+      <c r="I3" s="133"/>
+      <c r="J3" s="132" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="132"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="130"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="65" t="s">
         <v>127</v>
       </c>
@@ -2923,14 +2957,14 @@
       <c r="G4" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="128"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="132"/>
     </row>
     <row r="5" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="132"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="130"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="65" t="s">
         <v>128</v>
       </c>
@@ -2944,18 +2978,18 @@
       <c r="G5" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="125"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="128"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="132"/>
     </row>
     <row r="6" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="133">
+      <c r="A6" s="131">
         <v>2</v>
       </c>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="135" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="66" t="s">
@@ -2980,9 +3014,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="133"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="131"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="66" t="s">
         <v>145</v>
       </c>
@@ -3007,9 +3041,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="133"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="131"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="66" t="s">
         <v>146</v>
       </c>
@@ -3034,11 +3068,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="133">
+      <c r="A9" s="131">
         <v>3</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="131" t="s">
+      <c r="B9" s="142"/>
+      <c r="C9" s="135" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="66" t="s">
@@ -3063,9 +3097,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="133"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="131"/>
+      <c r="A10" s="131"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="66" t="s">
         <v>148</v>
       </c>
@@ -3090,9 +3124,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="133"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="131"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="66" t="s">
         <v>149</v>
       </c>
@@ -3115,13 +3149,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="134">
+      <c r="A12" s="125">
         <v>4</v>
       </c>
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="136" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="70" t="s">
@@ -3148,9 +3182,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="134"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="121"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="70" t="s">
         <v>151</v>
       </c>
@@ -3175,9 +3209,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="134"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="121"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="136"/>
       <c r="D14" s="70" t="s">
         <v>152</v>
       </c>
@@ -3200,11 +3234,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="134">
+      <c r="A15" s="125">
         <v>5</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="121" t="s">
+      <c r="B15" s="138"/>
+      <c r="C15" s="136" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="70" t="s">
@@ -3231,9 +3265,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="134"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="121"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="136"/>
       <c r="D16" s="70" t="s">
         <v>154</v>
       </c>
@@ -3256,9 +3290,9 @@
       <c r="J16" s="73"/>
     </row>
     <row r="17" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="134"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="121"/>
+      <c r="A17" s="125"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="136"/>
       <c r="D17" s="70" t="s">
         <v>155</v>
       </c>
@@ -3281,11 +3315,11 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="134">
+      <c r="A18" s="125">
         <v>6</v>
       </c>
-      <c r="B18" s="123"/>
-      <c r="C18" s="121" t="s">
+      <c r="B18" s="138"/>
+      <c r="C18" s="136" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="70" t="s">
@@ -3312,9 +3346,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="134"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="121"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="136"/>
       <c r="D19" s="70" t="s">
         <v>157</v>
       </c>
@@ -3339,9 +3373,9 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="134"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="121"/>
+      <c r="A20" s="125"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="136"/>
       <c r="D20" s="70" t="s">
         <v>158</v>
       </c>
@@ -3364,11 +3398,11 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="134">
+      <c r="A21" s="125">
         <v>7</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="121" t="s">
+      <c r="B21" s="138"/>
+      <c r="C21" s="136" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="70" t="s">
@@ -3395,9 +3429,9 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="134"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="121"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="136"/>
       <c r="D22" s="70" t="s">
         <v>160</v>
       </c>
@@ -3422,9 +3456,9 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="134"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="121"/>
+      <c r="A23" s="125"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="136"/>
       <c r="D23" s="70" t="s">
         <v>161</v>
       </c>
@@ -3447,11 +3481,11 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="134">
+      <c r="A24" s="125">
         <v>8</v>
       </c>
-      <c r="B24" s="123"/>
-      <c r="C24" s="121" t="s">
+      <c r="B24" s="138"/>
+      <c r="C24" s="136" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="70" t="s">
@@ -3478,9 +3512,9 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="134"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="121"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="70" t="s">
         <v>163</v>
       </c>
@@ -3505,9 +3539,9 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="6" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="134"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="121"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="136"/>
       <c r="D26" s="70" t="s">
         <v>164</v>
       </c>
@@ -3530,11 +3564,11 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="121" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="136" t="s">
         <v>199</v>
       </c>
       <c r="D27" s="75" t="s">
@@ -3559,9 +3593,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="136"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="121"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="136"/>
       <c r="D28" s="70" t="s">
         <v>166</v>
       </c>
@@ -3586,9 +3620,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="137"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="121"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="136"/>
       <c r="D29" s="70" t="s">
         <v>167</v>
       </c>
@@ -3611,13 +3645,13 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="119">
+      <c r="A30" s="129">
         <v>10</v>
       </c>
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="118" t="s">
+      <c r="C30" s="148" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="81" t="s">
@@ -3644,9 +3678,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="119"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="118"/>
+      <c r="A31" s="129"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="148"/>
       <c r="D31" s="81" t="s">
         <v>169</v>
       </c>
@@ -3669,9 +3703,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="119"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="118"/>
+      <c r="A32" s="129"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="148"/>
       <c r="D32" s="81" t="s">
         <v>170</v>
       </c>
@@ -3694,11 +3728,11 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="119">
+      <c r="A33" s="129">
         <v>11</v>
       </c>
-      <c r="B33" s="120"/>
-      <c r="C33" s="118" t="s">
+      <c r="B33" s="149"/>
+      <c r="C33" s="148" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="81" t="s">
@@ -3725,9 +3759,9 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="119"/>
-      <c r="B34" s="120"/>
-      <c r="C34" s="118"/>
+      <c r="A34" s="129"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="148"/>
       <c r="D34" s="81" t="s">
         <v>172</v>
       </c>
@@ -3750,9 +3784,9 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="119"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="118"/>
+      <c r="A35" s="129"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="148"/>
       <c r="D35" s="81" t="s">
         <v>173</v>
       </c>
@@ -3775,11 +3809,11 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="119">
+      <c r="A36" s="129">
         <v>12</v>
       </c>
-      <c r="B36" s="120"/>
-      <c r="C36" s="118" t="s">
+      <c r="B36" s="149"/>
+      <c r="C36" s="148" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="86" t="s">
@@ -3806,9 +3840,9 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="119"/>
-      <c r="B37" s="120"/>
-      <c r="C37" s="118"/>
+      <c r="A37" s="129"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="148"/>
       <c r="D37" s="86" t="s">
         <v>175</v>
       </c>
@@ -3831,9 +3865,9 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="119"/>
-      <c r="B38" s="120"/>
-      <c r="C38" s="118"/>
+      <c r="A38" s="129"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="148"/>
       <c r="D38" s="86" t="s">
         <v>176</v>
       </c>
@@ -3856,11 +3890,11 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="119">
+      <c r="A39" s="129">
         <v>13</v>
       </c>
-      <c r="B39" s="120"/>
-      <c r="C39" s="118" t="s">
+      <c r="B39" s="149"/>
+      <c r="C39" s="148" t="s">
         <v>122</v>
       </c>
       <c r="D39" s="86" t="s">
@@ -3887,9 +3921,9 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="119"/>
-      <c r="B40" s="120"/>
-      <c r="C40" s="118"/>
+      <c r="A40" s="129"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="148"/>
       <c r="D40" s="86" t="s">
         <v>178</v>
       </c>
@@ -3912,9 +3946,9 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="119"/>
-      <c r="B41" s="120"/>
-      <c r="C41" s="118"/>
+      <c r="A41" s="129"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="148"/>
       <c r="D41" s="86" t="s">
         <v>179</v>
       </c>
@@ -3937,11 +3971,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="119">
+      <c r="A42" s="129">
         <v>14</v>
       </c>
-      <c r="B42" s="120"/>
-      <c r="C42" s="118" t="s">
+      <c r="B42" s="149"/>
+      <c r="C42" s="148" t="s">
         <v>50</v>
       </c>
       <c r="D42" s="86" t="s">
@@ -3968,9 +4002,9 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="119"/>
-      <c r="B43" s="120"/>
-      <c r="C43" s="118"/>
+      <c r="A43" s="129"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="148"/>
       <c r="D43" s="86" t="s">
         <v>181</v>
       </c>
@@ -3993,9 +4027,9 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="119"/>
-      <c r="B44" s="120"/>
-      <c r="C44" s="118"/>
+      <c r="A44" s="129"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="148"/>
       <c r="D44" s="86" t="s">
         <v>182</v>
       </c>
@@ -4018,11 +4052,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="119">
+      <c r="A45" s="129">
         <v>15</v>
       </c>
-      <c r="B45" s="120"/>
-      <c r="C45" s="118" t="s">
+      <c r="B45" s="149"/>
+      <c r="C45" s="148" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="86" t="s">
@@ -4047,9 +4081,9 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="119"/>
-      <c r="B46" s="120"/>
-      <c r="C46" s="118"/>
+      <c r="A46" s="129"/>
+      <c r="B46" s="149"/>
+      <c r="C46" s="148"/>
       <c r="D46" s="86" t="s">
         <v>184</v>
       </c>
@@ -4074,9 +4108,9 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="119"/>
-      <c r="B47" s="120"/>
-      <c r="C47" s="118"/>
+      <c r="A47" s="129"/>
+      <c r="B47" s="149"/>
+      <c r="C47" s="148"/>
       <c r="D47" s="86" t="s">
         <v>185</v>
       </c>
@@ -4099,13 +4133,13 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="113">
+      <c r="A48" s="143">
         <v>16</v>
       </c>
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="145" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="114" t="s">
+      <c r="C48" s="144" t="s">
         <v>193</v>
       </c>
       <c r="D48" s="97"/>
@@ -4123,9 +4157,9 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="113"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="114"/>
+      <c r="A49" s="143"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="144"/>
       <c r="D49" s="97"/>
       <c r="E49" s="76">
         <v>41635</v>
@@ -4141,9 +4175,9 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="113"/>
-      <c r="B50" s="117"/>
-      <c r="C50" s="114"/>
+      <c r="A50" s="143"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="144"/>
       <c r="D50" s="97"/>
       <c r="E50" s="76">
         <v>41636</v>
@@ -4161,31 +4195,6 @@
   </sheetData>
   <autoFilter ref="A2:J41"/>
   <mergeCells count="40">
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B12:B29"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B11"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="B48:B50"/>
@@ -4201,6 +4210,31 @@
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B12:B29"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4534,8 +4568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E21:E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4550,7 +4584,7 @@
       <c r="B2" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="139" t="s">
+      <c r="E2" s="106" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4558,19 +4592,19 @@
       <c r="B3" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="E3" s="138"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="138"/>
+      <c r="E4" s="105"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="E5" s="141" t="s">
+      <c r="E5" s="108" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4578,25 +4612,25 @@
       <c r="B6" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="140"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="140"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="140"/>
+      <c r="E8" s="107"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="110" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4604,19 +4638,19 @@
       <c r="B10" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="142"/>
+      <c r="E10" s="109"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="142"/>
+      <c r="E11" s="109"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="145" t="s">
+      <c r="E12" s="112" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4624,19 +4658,19 @@
       <c r="B13" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="144"/>
+      <c r="E13" s="111"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="144"/>
+      <c r="E14" s="111"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="147" t="s">
+      <c r="E15" s="114" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4644,13 +4678,13 @@
       <c r="B16" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="E16" s="146"/>
+      <c r="E16" s="113"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="E17" s="146"/>
+      <c r="E17" s="113"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
@@ -4670,7 +4704,7 @@
       <c r="B21" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="149" t="s">
+      <c r="E21" s="116" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4678,19 +4712,75 @@
       <c r="B22" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="E22" s="148"/>
+      <c r="E22" s="115"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="E23" s="148"/>
+      <c r="E23" s="115"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="E24" s="148"/>
+      <c r="E24" s="115"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>272</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
